--- a/StructureDefinition-ext-R5-SubstancePolymer.xlsx
+++ b/StructureDefinition-ext-R5-SubstancePolymer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-SubstancePolymer.xlsx
+++ b/StructureDefinition-ext-R5-SubstancePolymer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4825" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4825" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,6 +385,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.class</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -432,6 +435,9 @@
     <t>Extension.extension:geometry.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.geometry</t>
+  </si>
+  <si>
     <t>Extension.extension:geometry.value[x]</t>
   </si>
   <si>
@@ -459,6 +465,9 @@
     <t>Extension.extension:copolymerConnectivity.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.copolymerConnectivity</t>
+  </si>
+  <si>
     <t>Extension.extension:copolymerConnectivity.value[x]</t>
   </si>
   <si>
@@ -486,6 +495,9 @@
     <t>Extension.extension:modification.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.modification</t>
+  </si>
+  <si>
     <t>Extension.extension:modification.value[x]</t>
   </si>
   <si>
@@ -543,6 +555,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.monomerSet.ratioType</t>
+  </si>
+  <si>
     <t>Extension.extension:monomerSet.extension:ratioType.value[x]</t>
   </si>
   <si>
@@ -603,6 +618,9 @@
     <t>Extension.extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.monomerSet.startingMaterial.code</t>
+  </si>
+  <si>
     <t>Extension.extension:monomerSet.extension:startingMaterial.extension:code.value[x]</t>
   </si>
   <si>
@@ -633,6 +651,9 @@
     <t>Extension.extension:monomerSet.extension:startingMaterial.extension:category.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.monomerSet.startingMaterial.category</t>
+  </si>
+  <si>
     <t>Extension.extension:monomerSet.extension:startingMaterial.extension:category.value[x]</t>
   </si>
   <si>
@@ -658,6 +679,9 @@
   </si>
   <si>
     <t>Extension.extension:monomerSet.extension:startingMaterial.extension:isDefining.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.monomerSet.startingMaterial.isDefining</t>
   </si>
   <si>
     <t>Extension.extension:monomerSet.extension:startingMaterial.extension:isDefining.value[x]</t>
@@ -691,6 +715,9 @@
     <t>Extension.extension:monomerSet.extension:startingMaterial.extension:amount.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.monomerSet.startingMaterial.amount</t>
+  </si>
+  <si>
     <t>Extension.extension:monomerSet.extension:startingMaterial.extension:amount.value[x]</t>
   </si>
   <si>
@@ -771,6 +798,9 @@
     <t>Extension.extension:repeat.extension:averageMolecularFormula.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.averageMolecularFormula</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:averageMolecularFormula.value[x]</t>
   </si>
   <si>
@@ -798,6 +828,9 @@
     <t>Extension.extension:repeat.extension:repeatUnitAmountType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnitAmountType</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:repeatUnitAmountType.value[x]</t>
   </si>
   <si>
@@ -846,6 +879,9 @@
     <t>Extension.extension:repeat.extension:repeatUnit.extension:unit.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.unit</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:unit.value[x]</t>
   </si>
   <si>
@@ -873,6 +909,9 @@
     <t>Extension.extension:repeat.extension:repeatUnit.extension:orientation.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.orientation</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:orientation.value[x]</t>
   </si>
   <si>
@@ -895,6 +934,9 @@
   </si>
   <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:amount.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.amount</t>
   </si>
   <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:amount.value[x]</t>
@@ -958,6 +1000,9 @@
     <t>Extension.extension.extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.degreeOfPolymerisation.type</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:degreeOfPolymerisation.extension:type.value[x]</t>
   </si>
   <si>
@@ -988,6 +1033,9 @@
     <t>Extension.extension:repeat.extension:repeatUnit.extension:degreeOfPolymerisation.extension:average.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.degreeOfPolymerisation.average</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:degreeOfPolymerisation.extension:average.value[x]</t>
   </si>
   <si>
@@ -1015,6 +1063,9 @@
     <t>Extension.extension:repeat.extension:repeatUnit.extension:degreeOfPolymerisation.extension:low.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.degreeOfPolymerisation.low</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:degreeOfPolymerisation.extension:low.value[x]</t>
   </si>
   <si>
@@ -1042,6 +1093,9 @@
     <t>Extension.extension:repeat.extension:repeatUnit.extension:degreeOfPolymerisation.extension:high.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.degreeOfPolymerisation.high</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:degreeOfPolymerisation.extension:high.value[x]</t>
   </si>
   <si>
@@ -1096,6 +1150,9 @@
     <t>Extension.extension:repeat.extension:repeatUnit.extension:structuralRepresentation.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.structuralRepresentation.type</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:structuralRepresentation.extension:type.value[x]</t>
   </si>
   <si>
@@ -1123,6 +1180,9 @@
     <t>Extension.extension:repeat.extension:repeatUnit.extension:structuralRepresentation.extension:representation.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.structuralRepresentation.representation</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:structuralRepresentation.extension:representation.value[x]</t>
   </si>
   <si>
@@ -1150,6 +1210,9 @@
     <t>Extension.extension:repeat.extension:repeatUnit.extension:structuralRepresentation.extension:format.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.structuralRepresentation.format</t>
+  </si>
+  <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:structuralRepresentation.extension:format.value[x]</t>
   </si>
   <si>
@@ -1175,6 +1238,9 @@
   </si>
   <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:structuralRepresentation.extension:attachment.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstancePolymer.repeat.repeatUnit.structuralRepresentation.attachment</t>
   </si>
   <si>
     <t>Extension.extension:repeat.extension:repeatUnit.extension:structuralRepresentation.extension:attachment.value[x]</t>
@@ -2354,7 +2420,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2396,7 +2462,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2411,15 +2477,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2442,7 +2508,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2499,7 +2565,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2511,21 +2577,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2550,14 +2616,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2626,7 +2692,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2729,7 +2795,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2834,7 +2900,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2877,7 +2943,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2919,7 +2985,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2934,15 +3000,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2965,13 +3031,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3022,7 +3088,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3034,21 +3100,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3073,14 +3139,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3149,7 +3215,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3252,7 +3318,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3357,7 +3423,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3400,7 +3466,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3442,7 +3508,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3457,15 +3523,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3488,13 +3554,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3545,7 +3611,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3557,21 +3623,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3596,14 +3662,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3672,7 +3738,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3775,7 +3841,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3880,7 +3946,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3923,7 +3989,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3965,7 +4031,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3980,15 +4046,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4014,10 +4080,10 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4068,7 +4134,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4080,21 +4146,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4119,14 +4185,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4195,7 +4261,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4298,7 +4364,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4401,13 +4467,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4432,14 +4498,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4508,10 +4574,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4611,10 +4677,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4716,10 +4782,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4759,7 +4825,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4801,7 +4867,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4816,15 +4882,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4847,13 +4913,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4904,7 +4970,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4916,21 +4982,21 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4955,14 +5021,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5031,10 +5097,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5134,10 +5200,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5237,13 +5303,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
@@ -5268,14 +5334,14 @@
         <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5344,10 +5410,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5447,10 +5513,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5552,10 +5618,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5595,7 +5661,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -5637,7 +5703,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
@@ -5652,15 +5718,15 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5683,13 +5749,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5740,7 +5806,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5752,21 +5818,21 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
@@ -5791,14 +5857,14 @@
         <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -5867,10 +5933,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5970,10 +6036,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6075,10 +6141,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6118,7 +6184,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>77</v>
@@ -6160,7 +6226,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6175,15 +6241,15 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6206,13 +6272,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6263,7 +6329,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6275,21 +6341,21 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
@@ -6314,14 +6380,14 @@
         <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6390,10 +6456,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6493,10 +6559,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6598,10 +6664,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6641,7 +6707,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>77</v>
@@ -6683,7 +6749,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -6698,15 +6764,15 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6729,13 +6795,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="M50" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6786,7 +6852,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -6798,21 +6864,21 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -6837,14 +6903,14 @@
         <v>93</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -6913,10 +6979,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7016,10 +7082,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7121,10 +7187,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7164,7 +7230,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -7206,7 +7272,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
@@ -7221,15 +7287,15 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7252,13 +7318,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7309,7 +7375,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7321,18 +7387,18 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7372,7 +7438,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7414,7 +7480,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -7429,15 +7495,15 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7460,13 +7526,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7517,7 +7583,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7529,15 +7595,15 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7580,7 +7646,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7622,7 +7688,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -7637,15 +7703,15 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7668,13 +7734,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7725,7 +7791,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7737,21 +7803,21 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7776,14 +7842,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7852,7 +7918,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7955,7 +8021,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -8058,13 +8124,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8089,14 +8155,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8165,10 +8231,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8268,10 +8334,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8373,10 +8439,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8416,7 +8482,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8458,7 +8524,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>86</v>
@@ -8473,15 +8539,15 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8507,10 +8573,10 @@
         <v>87</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8561,7 +8627,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -8573,21 +8639,21 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8612,14 +8678,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8688,10 +8754,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8791,10 +8857,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8896,10 +8962,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8939,7 +9005,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8981,7 +9047,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
@@ -8996,15 +9062,15 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9027,13 +9093,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9084,7 +9150,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9096,21 +9162,21 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9135,14 +9201,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9211,10 +9277,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9314,10 +9380,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9417,13 +9483,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9448,14 +9514,14 @@
         <v>93</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9524,10 +9590,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9627,10 +9693,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9732,10 +9798,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9775,7 +9841,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -9817,7 +9883,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>86</v>
@@ -9832,15 +9898,15 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9866,10 +9932,10 @@
         <v>87</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -9920,7 +9986,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -9932,21 +9998,21 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -9971,14 +10037,14 @@
         <v>93</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10047,10 +10113,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10150,10 +10216,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10255,10 +10321,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10298,7 +10364,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -10340,7 +10406,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>86</v>
@@ -10355,15 +10421,15 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10386,13 +10452,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10443,7 +10509,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -10455,21 +10521,21 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>77</v>
@@ -10494,14 +10560,14 @@
         <v>93</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -10570,10 +10636,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10673,10 +10739,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10778,10 +10844,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10821,7 +10887,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>77</v>
@@ -10863,7 +10929,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>86</v>
@@ -10878,15 +10944,15 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10909,13 +10975,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -10966,7 +11032,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -10978,21 +11044,21 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>77</v>
@@ -11017,14 +11083,14 @@
         <v>93</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -11093,10 +11159,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11196,10 +11262,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11299,13 +11365,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>77</v>
@@ -11330,14 +11396,14 @@
         <v>93</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -11406,10 +11472,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11509,10 +11575,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11614,10 +11680,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11657,7 +11723,7 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>77</v>
@@ -11699,7 +11765,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>86</v>
@@ -11714,15 +11780,15 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11745,13 +11811,13 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -11802,7 +11868,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -11814,21 +11880,21 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>77</v>
@@ -11853,14 +11919,14 @@
         <v>93</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>77</v>
@@ -11929,10 +11995,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12032,10 +12098,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12137,10 +12203,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12180,7 +12246,7 @@
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>77</v>
@@ -12222,7 +12288,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>86</v>
@@ -12237,15 +12303,15 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12268,13 +12334,13 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12325,7 +12391,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -12337,21 +12403,21 @@
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>77</v>
@@ -12376,14 +12442,14 @@
         <v>93</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>77</v>
@@ -12452,10 +12518,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12555,10 +12621,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12660,10 +12726,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12703,7 +12769,7 @@
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>77</v>
@@ -12745,7 +12811,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>86</v>
@@ -12760,15 +12826,15 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -12791,13 +12857,13 @@
         <v>77</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -12848,7 +12914,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -12860,21 +12926,21 @@
         <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>77</v>
@@ -12899,14 +12965,14 @@
         <v>93</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -12975,10 +13041,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13078,10 +13144,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13183,10 +13249,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13226,7 +13292,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>77</v>
@@ -13268,7 +13334,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>86</v>
@@ -13283,15 +13349,15 @@
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13314,13 +13380,13 @@
         <v>77</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -13371,7 +13437,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -13383,18 +13449,18 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13434,7 +13500,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -13476,7 +13542,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>86</v>
@@ -13491,15 +13557,15 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13522,13 +13588,13 @@
         <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -13579,7 +13645,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -13591,21 +13657,21 @@
         <v>77</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>77</v>
@@ -13630,14 +13696,14 @@
         <v>93</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>77</v>
@@ -13706,10 +13772,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13809,10 +13875,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -13912,13 +13978,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>77</v>
@@ -13943,14 +14009,14 @@
         <v>93</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>77</v>
@@ -14019,10 +14085,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14122,10 +14188,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14227,10 +14293,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14270,7 +14336,7 @@
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" t="s" s="2">
-        <v>297</v>
+        <v>371</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>77</v>
@@ -14312,7 +14378,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>86</v>
@@ -14327,15 +14393,15 @@
         <v>77</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14358,13 +14424,13 @@
         <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -14415,7 +14481,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -14427,21 +14493,21 @@
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>77</v>
@@ -14466,14 +14532,14 @@
         <v>93</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>77</v>
@@ -14542,10 +14608,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14645,10 +14711,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14750,10 +14816,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14793,7 +14859,7 @@
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" t="s" s="2">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>77</v>
@@ -14835,7 +14901,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>86</v>
@@ -14850,15 +14916,15 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -14884,10 +14950,10 @@
         <v>87</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -14938,7 +15004,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -14950,21 +15016,21 @@
         <v>77</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>77</v>
@@ -14989,14 +15055,14 @@
         <v>93</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -15065,10 +15131,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15168,10 +15234,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15273,10 +15339,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15316,7 +15382,7 @@
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" t="s" s="2">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>77</v>
@@ -15358,7 +15424,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>86</v>
@@ -15373,15 +15439,15 @@
         <v>77</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15404,13 +15470,13 @@
         <v>77</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -15461,7 +15527,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -15473,21 +15539,21 @@
         <v>77</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>77</v>
@@ -15512,14 +15578,14 @@
         <v>93</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>77</v>
@@ -15588,10 +15654,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15691,10 +15757,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -15796,10 +15862,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -15839,7 +15905,7 @@
       </c>
       <c r="Q137" s="2"/>
       <c r="R137" t="s" s="2">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="S137" t="s" s="2">
         <v>77</v>
@@ -15881,7 +15947,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>86</v>
@@ -15896,15 +15962,15 @@
         <v>77</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -15927,13 +15993,13 @@
         <v>77</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -15984,7 +16050,7 @@
         <v>77</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>78</v>
@@ -15996,18 +16062,18 @@
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16047,7 +16113,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16089,7 +16155,7 @@
         <v>77</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>86</v>
@@ -16104,15 +16170,15 @@
         <v>77</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16135,13 +16201,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16192,7 +16258,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -16204,18 +16270,18 @@
         <v>77</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16255,7 +16321,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16297,7 +16363,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>86</v>
@@ -16312,15 +16378,15 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16343,13 +16409,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16400,7 +16466,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16412,15 +16478,15 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>113</v>
@@ -16463,7 +16529,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -16505,7 +16571,7 @@
         <v>77</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>86</v>
@@ -16520,15 +16586,15 @@
         <v>77</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16551,13 +16617,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -16608,7 +16674,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -16620,18 +16686,18 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16713,7 +16779,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>86</v>
@@ -16728,15 +16794,15 @@
         <v>77</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -16759,13 +16825,13 @@
         <v>77</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -16816,7 +16882,7 @@
         <v>77</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>78</v>
@@ -16828,10 +16894,10 @@
         <v>77</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-SubstancePolymer.xlsx
+++ b/StructureDefinition-ext-R5-SubstancePolymer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-SubstancePolymer.xlsx
+++ b/StructureDefinition-ext-R5-SubstancePolymer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
